--- a/R-Image/poll/Poll_May.xlsx
+++ b/R-Image/poll/Poll_May.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/Yonsei/Junior/R &amp; Python Programming/3-2 SelfStudy/Others/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/Yonsei/Junior/R &amp; Python Programming/3-2 SelfStudy/Others/poll/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAF3CE7-293A-8F42-8E35-E01862183B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDB80EB-D7C1-C148-9541-65DE5198AC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
   <si>
     <t>Institute</t>
   </si>
@@ -211,6 +211,18 @@
   </si>
   <si>
     <t>엠브레인퍼블릭, 케이스탯리서치, 코리아리서치인터내셔널, 한국리서치</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이스리서치</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이스탯리서치</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -809,7 +821,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -820,6 +832,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1177,11 +1192,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1302,14 +1317,14 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D28" si="0">IF(C3=0, 1, 0)</f>
+        <f t="shared" ref="D3:D48" si="0">IF(C3=0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F28" si="1">100-E3</f>
+        <f t="shared" ref="F3:F48" si="1">100-E3</f>
         <v>100</v>
       </c>
       <c r="G3" s="1">
@@ -1319,11 +1334,11 @@
         <v>45047</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I28" si="2">MONTH(H3)</f>
+        <f t="shared" ref="I3:I49" si="2">MONTH(H3)</f>
         <v>5</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J28" si="3">DAY(H3)</f>
+        <f t="shared" ref="J3:J49" si="3">DAY(H3)</f>
         <v>1</v>
       </c>
       <c r="K3" s="1">
@@ -1485,17 +1500,17 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -1505,10 +1520,10 @@
         <v>100</v>
       </c>
       <c r="G7" s="1">
-        <v>3.1</v>
+        <v>9.1</v>
       </c>
       <c r="H7" s="3">
-        <v>45050</v>
+        <v>45049</v>
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
@@ -1516,41 +1531,47 @@
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7" s="1">
-        <v>36.4</v>
+        <v>36.1</v>
       </c>
       <c r="L7" s="1">
-        <v>60.4</v>
+        <v>59.3</v>
+      </c>
+      <c r="M7" s="1">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="N7" s="1">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G8" s="1">
-        <v>9.1</v>
+        <v>3</v>
       </c>
       <c r="H8" s="3">
-        <v>45049</v>
+        <v>45054</v>
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
@@ -1558,47 +1579,49 @@
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K8" s="1">
-        <v>36.1</v>
+        <f>521/1504*100</f>
+        <v>34.640957446808514</v>
       </c>
       <c r="L8" s="1">
-        <v>59.3</v>
+        <f>940/1504*100</f>
+        <v>62.5</v>
       </c>
       <c r="M8" s="1">
-        <v>32.700000000000003</v>
+        <v>45.5</v>
       </c>
       <c r="N8" s="1">
-        <v>34</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G9" s="1">
-        <v>3</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H9" s="3">
-        <v>45054</v>
+        <v>45051</v>
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
@@ -1606,49 +1629,47 @@
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K9" s="1">
-        <f>521/1504*100</f>
-        <v>34.640957446808514</v>
+        <v>33</v>
       </c>
       <c r="L9" s="1">
-        <f>940/1504*100</f>
-        <v>62.5</v>
+        <v>57</v>
       </c>
       <c r="M9" s="1">
-        <v>45.5</v>
+        <v>32</v>
       </c>
       <c r="N9" s="1">
-        <v>34.9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G10" s="1">
-        <v>9.1999999999999993</v>
+        <v>1.6</v>
       </c>
       <c r="H10" s="3">
-        <v>45051</v>
+        <v>45053</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
@@ -1656,34 +1677,36 @@
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="1">
-        <v>33</v>
+        <f>38.5</f>
+        <v>38.5</v>
       </c>
       <c r="L10" s="1">
-        <v>57</v>
+        <f>58.7</f>
+        <v>58.7</v>
       </c>
       <c r="M10" s="1">
-        <v>32</v>
+        <v>46.5</v>
       </c>
       <c r="N10" s="1">
-        <v>35</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -1693,10 +1716,10 @@
         <v>100</v>
       </c>
       <c r="G11" s="1">
-        <v>1.6</v>
+        <v>17.2</v>
       </c>
       <c r="H11" s="3">
-        <v>45053</v>
+        <v>45054</v>
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
@@ -1704,21 +1727,19 @@
       </c>
       <c r="J11">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K11" s="1">
-        <f>38.5</f>
-        <v>38.5</v>
+        <v>31.4</v>
       </c>
       <c r="L11" s="1">
-        <f>58.7</f>
-        <v>58.7</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="M11" s="1">
-        <v>46.5</v>
+        <v>43.2</v>
       </c>
       <c r="N11" s="1">
-        <v>36.5</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1729,11 +1750,11 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1743,7 +1764,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="1">
-        <v>17.2</v>
+        <v>3.5</v>
       </c>
       <c r="H12" s="3">
         <v>45054</v>
@@ -1757,24 +1778,24 @@
         <v>8</v>
       </c>
       <c r="K12" s="1">
-        <v>31.4</v>
+        <v>35.5</v>
       </c>
       <c r="L12" s="1">
-        <v>65.400000000000006</v>
+        <v>63.8</v>
       </c>
       <c r="M12" s="1">
-        <v>43.2</v>
+        <v>52.7</v>
       </c>
       <c r="N12" s="1">
-        <v>29.5</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1784,17 +1805,17 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G13" s="1">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H13" s="3">
-        <v>45054</v>
+        <v>45055</v>
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
@@ -1802,27 +1823,29 @@
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K13" s="1">
-        <v>35.5</v>
+        <f>394/1001*100</f>
+        <v>39.360639360639361</v>
       </c>
       <c r="L13" s="1">
-        <v>63.8</v>
+        <f>577/1001*100</f>
+        <v>57.642357642357645</v>
       </c>
       <c r="M13" s="1">
-        <v>52.7</v>
+        <v>43.2</v>
       </c>
       <c r="N13" s="1">
-        <v>36.9</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1832,14 +1855,14 @@
         <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="3">
         <v>45055</v>
@@ -1853,26 +1876,25 @@
         <v>9</v>
       </c>
       <c r="K14" s="1">
-        <f>394/1001*100</f>
-        <v>39.360639360639361</v>
+        <v>37</v>
       </c>
       <c r="L14" s="1">
-        <f>577/1001*100</f>
-        <v>57.642357642357645</v>
+        <f>49.7+10.5</f>
+        <v>60.2</v>
       </c>
       <c r="M14" s="1">
-        <v>43.2</v>
+        <v>45.8</v>
       </c>
       <c r="N14" s="1">
-        <v>38.9</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1889,7 +1911,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="1">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="H15" s="3">
         <v>45055</v>
@@ -1903,32 +1925,31 @@
         <v>9</v>
       </c>
       <c r="K15" s="1">
-        <v>37</v>
+        <v>32.6</v>
       </c>
       <c r="L15" s="1">
-        <f>49.7+10.5</f>
-        <v>60.2</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="M15" s="1">
-        <v>45.8</v>
+        <v>49.1</v>
       </c>
       <c r="N15" s="1">
-        <v>36.5</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -1938,10 +1959,10 @@
         <v>100</v>
       </c>
       <c r="G16" s="1">
-        <v>3.2</v>
+        <v>10.6</v>
       </c>
       <c r="H16" s="3">
-        <v>45055</v>
+        <v>45056</v>
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
@@ -1949,27 +1970,27 @@
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K16" s="1">
-        <v>32.6</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="L16" s="1">
-        <v>64.400000000000006</v>
+        <v>58.2</v>
       </c>
       <c r="M16" s="1">
-        <v>49.1</v>
+        <v>29</v>
       </c>
       <c r="N16" s="1">
-        <v>31.1</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1986,10 +2007,10 @@
         <v>100</v>
       </c>
       <c r="G17" s="1">
-        <v>10.6</v>
+        <v>18</v>
       </c>
       <c r="H17" s="3">
-        <v>45056</v>
+        <v>45055</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
@@ -1997,15 +2018,27 @@
       </c>
       <c r="J17">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="K17" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="L17" s="1">
+        <v>60</v>
+      </c>
+      <c r="M17" s="1">
+        <v>30.2</v>
+      </c>
+      <c r="N17" s="1">
+        <v>36.6</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2022,7 +2055,7 @@
         <v>100</v>
       </c>
       <c r="G18" s="1">
-        <v>18</v>
+        <v>12.3</v>
       </c>
       <c r="H18" s="3">
         <v>45055</v>
@@ -2036,24 +2069,24 @@
         <v>9</v>
       </c>
       <c r="K18" s="1">
-        <v>37.5</v>
+        <v>36.1</v>
       </c>
       <c r="L18" s="1">
-        <v>60</v>
+        <v>59.5</v>
       </c>
       <c r="M18" s="1">
-        <v>30.2</v>
+        <v>32.6</v>
       </c>
       <c r="N18" s="1">
-        <v>36.6</v>
+        <v>36.700000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2070,10 +2103,10 @@
         <v>100</v>
       </c>
       <c r="G19" s="1">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="H19" s="3">
-        <v>45055</v>
+        <v>45056</v>
       </c>
       <c r="I19">
         <f t="shared" si="2"/>
@@ -2081,27 +2114,27 @@
       </c>
       <c r="J19">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K19" s="1">
-        <v>36.1</v>
+        <v>38.5</v>
       </c>
       <c r="L19" s="1">
-        <v>59.5</v>
+        <v>57.6</v>
       </c>
       <c r="M19" s="1">
-        <v>32.6</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="N19" s="1">
-        <v>36.700000000000003</v>
+        <v>35.700000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2118,10 +2151,10 @@
         <v>100</v>
       </c>
       <c r="G20" s="1">
-        <v>11.9</v>
+        <v>14.7</v>
       </c>
       <c r="H20" s="3">
-        <v>45056</v>
+        <v>45055</v>
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
@@ -2129,34 +2162,34 @@
       </c>
       <c r="J20">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K20" s="1">
-        <v>38.5</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="L20" s="1">
-        <v>57.6</v>
+        <v>59.7</v>
       </c>
       <c r="M20" s="1">
-        <v>33.799999999999997</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="N20" s="1">
-        <v>35.700000000000003</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -2166,10 +2199,10 @@
         <v>100</v>
       </c>
       <c r="G21" s="1">
-        <v>14.7</v>
+        <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>45055</v>
+        <v>45056</v>
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
@@ -2177,34 +2210,34 @@
       </c>
       <c r="J21">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K21" s="1">
-        <v>34.700000000000003</v>
+        <v>38.1</v>
       </c>
       <c r="L21" s="1">
-        <v>59.7</v>
+        <v>60.4</v>
       </c>
       <c r="M21" s="1">
-        <v>33.299999999999997</v>
+        <v>44.4</v>
       </c>
       <c r="N21" s="1">
-        <v>33.4</v>
+        <v>36.799999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -2214,10 +2247,10 @@
         <v>100</v>
       </c>
       <c r="G22" s="1">
-        <v>3</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="H22" s="3">
-        <v>45056</v>
+        <v>45055</v>
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
@@ -2225,34 +2258,34 @@
       </c>
       <c r="J22">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K22" s="1">
-        <v>38.1</v>
+        <v>39.1</v>
       </c>
       <c r="L22" s="1">
-        <v>60.4</v>
+        <v>55.5</v>
       </c>
       <c r="M22" s="1">
-        <v>44.4</v>
+        <v>32</v>
       </c>
       <c r="N22" s="1">
-        <v>36.799999999999997</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -2262,10 +2295,10 @@
         <v>100</v>
       </c>
       <c r="G23" s="1">
-        <v>17.399999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="H23" s="3">
-        <v>45055</v>
+        <v>45056</v>
       </c>
       <c r="I23">
         <f t="shared" si="2"/>
@@ -2273,44 +2306,44 @@
       </c>
       <c r="J23">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K23" s="1">
-        <v>39.1</v>
+        <v>42.1</v>
       </c>
       <c r="L23" s="1">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="M23" s="1">
-        <v>32</v>
+        <v>30.6</v>
       </c>
       <c r="N23" s="1">
-        <v>35.9</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G24" s="1">
-        <v>1.3</v>
+        <v>14.1</v>
       </c>
       <c r="H24" s="3">
         <v>45056</v>
@@ -2324,24 +2357,24 @@
         <v>10</v>
       </c>
       <c r="K24" s="1">
-        <v>42.1</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="L24" s="1">
-        <v>55.4</v>
+        <v>54.8</v>
       </c>
       <c r="M24" s="1">
-        <v>30.6</v>
+        <v>23.9</v>
       </c>
       <c r="N24" s="1">
-        <v>39.4</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2351,17 +2384,17 @@
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G25" s="1">
-        <v>14.1</v>
+        <v>16</v>
       </c>
       <c r="H25" s="3">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
@@ -2369,34 +2402,34 @@
       </c>
       <c r="J25">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K25" s="1">
-        <v>39.799999999999997</v>
+        <v>36</v>
       </c>
       <c r="L25" s="1">
-        <v>54.8</v>
+        <v>55</v>
       </c>
       <c r="M25" s="1">
-        <v>23.9</v>
+        <v>29</v>
       </c>
       <c r="N25" s="1">
-        <v>30.1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -2406,10 +2439,10 @@
         <v>100</v>
       </c>
       <c r="G26" s="1">
-        <v>12.7</v>
+        <v>3.1</v>
       </c>
       <c r="H26" s="3">
-        <v>45056</v>
+        <v>45058</v>
       </c>
       <c r="I26">
         <f t="shared" si="2"/>
@@ -2417,61 +2450,1142 @@
       </c>
       <c r="J26">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="K26" s="1">
+        <v>35.4</v>
+      </c>
+      <c r="L26" s="1">
+        <v>62.8</v>
+      </c>
+      <c r="M26" s="1">
+        <v>46.1</v>
+      </c>
+      <c r="N26" s="1">
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="G27" s="1">
+        <v>11</v>
+      </c>
+      <c r="H27" s="3">
+        <v>45058</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="K27" s="1">
+        <v>35</v>
+      </c>
+      <c r="L27" s="1">
+        <v>59</v>
+      </c>
+      <c r="M27" s="1">
+        <v>32</v>
+      </c>
+      <c r="N27" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H28" s="3">
+        <v>45060</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="K28" s="1">
+        <f>19.4+19.8</f>
+        <v>39.200000000000003</v>
+      </c>
+      <c r="L28" s="1">
+        <f>45.3+12.7</f>
+        <v>58</v>
+      </c>
+      <c r="M28" s="1">
+        <v>46.1</v>
+      </c>
+      <c r="N28" s="1">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3">
+        <v>45061</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="K29" s="1">
+        <f>920/2503*100</f>
+        <v>36.755892928485814</v>
+      </c>
+      <c r="L29" s="1">
+        <f>1522/2503*100</f>
+        <v>60.807031562125445</v>
+      </c>
+      <c r="M29" s="1">
         <v>47</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="N29" s="1">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="G27" s="1">
-        <v>16</v>
-      </c>
-      <c r="H27" s="3">
-        <v>45057</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
+      <c r="G30" s="1">
+        <v>17.8</v>
+      </c>
+      <c r="H30" s="3">
+        <v>45061</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="K30" s="1">
+        <v>35.1</v>
+      </c>
+      <c r="L30" s="1">
+        <v>62.2</v>
+      </c>
+      <c r="M30" s="1">
+        <v>41</v>
+      </c>
+      <c r="N30" s="1">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I28">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="G31" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="H31" s="3">
+        <v>45061</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="K31" s="1">
+        <v>39</v>
+      </c>
+      <c r="L31" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="M31" s="1">
+        <v>49.4</v>
+      </c>
+      <c r="N31" s="1">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>45063</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="K32" s="1">
+        <v>42.9</v>
+      </c>
+      <c r="L32" s="1">
+        <v>56.4</v>
+      </c>
+      <c r="M32" s="1">
+        <v>34.6</v>
+      </c>
+      <c r="N32" s="1">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="H33" s="3">
+        <v>45064</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="K33" s="1">
+        <v>41.7</v>
+      </c>
+      <c r="L33" s="1">
+        <v>55.9</v>
+      </c>
+      <c r="M33" s="1">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="N33" s="1">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G34" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="H34" s="3">
+        <v>45065</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="K34" s="1">
+        <v>36.4</v>
+      </c>
+      <c r="L34" s="1">
+        <v>61.4</v>
+      </c>
+      <c r="M34" s="1">
+        <v>46.7</v>
+      </c>
+      <c r="N34" s="1">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>5</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="G35" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="H35" s="3">
+        <v>45065</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="K35" s="1">
+        <v>37</v>
+      </c>
+      <c r="L35" s="1">
+        <v>56</v>
+      </c>
+      <c r="M35" s="1">
+        <v>33</v>
+      </c>
+      <c r="N35" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="H36" s="3">
+        <v>45067</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="K36" s="1">
+        <f>18.1+23.4</f>
+        <v>41.5</v>
+      </c>
+      <c r="L36" s="1">
+        <f>40.6+14.3</f>
+        <v>54.900000000000006</v>
+      </c>
+      <c r="M36" s="1">
+        <v>42.2</v>
+      </c>
+      <c r="N36" s="1">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="H37" s="3">
+        <v>45068</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="K37" s="1">
+        <f>977/2504*100</f>
+        <v>39.017571884984022</v>
+      </c>
+      <c r="L37" s="1">
+        <f>1450/2504*100</f>
+        <v>57.907348242811494</v>
+      </c>
+      <c r="M37" s="1">
+        <v>42.4</v>
+      </c>
+      <c r="N37" s="1">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G38" s="1">
+        <v>17.2</v>
+      </c>
+      <c r="H38" s="3">
+        <v>45068</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="K38" s="1">
+        <v>34.9</v>
+      </c>
+      <c r="L38" s="1">
+        <v>61.9</v>
+      </c>
+      <c r="M38" s="1">
+        <v>43.1</v>
+      </c>
+      <c r="N38" s="1">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G39" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H39" s="3">
+        <v>45068</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="K39" s="1">
+        <v>35.6</v>
+      </c>
+      <c r="L39" s="1">
+        <v>63.8</v>
+      </c>
+      <c r="M39" s="1">
+        <v>54.4</v>
+      </c>
+      <c r="N39" s="1">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="H40" s="3">
+        <v>45070</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="K40" s="1">
+        <v>42.2</v>
+      </c>
+      <c r="L40" s="1">
+        <v>56.5</v>
+      </c>
+      <c r="M40" s="1">
+        <v>37.4</v>
+      </c>
+      <c r="N40" s="1">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G41" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="H41" s="3">
+        <v>45070</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="K41" s="1">
+        <v>41.2</v>
+      </c>
+      <c r="L41" s="1">
+        <v>57.2</v>
+      </c>
+      <c r="M41" s="1">
+        <v>44.2</v>
+      </c>
+      <c r="N41" s="1">
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G42" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>45071</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="K42" s="1">
+        <v>36</v>
+      </c>
+      <c r="L42" s="1">
+        <v>56</v>
+      </c>
+      <c r="M42" s="1">
+        <v>27</v>
+      </c>
+      <c r="N42" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G43" s="1">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3">
+        <v>45072</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="K43" s="1">
+        <v>36.4</v>
+      </c>
+      <c r="L43" s="1">
+        <v>60</v>
+      </c>
+      <c r="M43" s="1">
+        <v>45.2</v>
+      </c>
+      <c r="N43" s="1">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>5</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="G44" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H44" s="3">
+        <v>45072</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="K44" s="1">
+        <v>36</v>
+      </c>
+      <c r="L44" s="1">
+        <v>55</v>
+      </c>
+      <c r="M44" s="1">
+        <v>31</v>
+      </c>
+      <c r="N44" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="H45" s="3">
+        <v>45074</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="K45" s="1">
+        <f>18.8+25.9</f>
+        <v>44.7</v>
+      </c>
+      <c r="L45" s="1">
+        <f>42.9+10.3</f>
+        <v>53.2</v>
+      </c>
+      <c r="M45" s="1">
+        <v>43.3</v>
+      </c>
+      <c r="N45" s="1">
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>3</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="G46" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="H46" s="3">
+        <v>45075</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="K46" s="1">
+        <f>1001/2504*100</f>
+        <v>39.976038338658149</v>
+      </c>
+      <c r="L46" s="1">
+        <f>1421/2504*100</f>
+        <v>56.749201277955272</v>
+      </c>
+      <c r="M46" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="N46" s="1">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G47" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="H47" s="3">
+        <v>45075</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="K47" s="1">
+        <v>31.7</v>
+      </c>
+      <c r="L47" s="1">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="M47" s="1">
+        <v>41.7</v>
+      </c>
+      <c r="N47" s="1">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="H48" s="3">
+        <v>45075</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="K48" s="1">
+        <v>42.3</v>
+      </c>
+      <c r="L48" s="1">
+        <v>56.7</v>
+      </c>
+      <c r="M48" s="1">
+        <v>49</v>
+      </c>
+      <c r="N48" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="1">
+        <f>AVERAGE(C2:C48)</f>
+        <v>0.40425531914893614</v>
+      </c>
+      <c r="D49" s="1">
+        <f>AVERAGE(D2:D48)</f>
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="E49" s="1">
+        <f>AVERAGE(E2:E48)</f>
+        <v>1.0212765957446808</v>
+      </c>
+      <c r="F49" s="1">
+        <f>AVERAGE(F2:F48)</f>
+        <v>98.978723404255319</v>
+      </c>
+      <c r="G49" s="1">
+        <f>AVERAGE(G2:G48)</f>
+        <v>7.3170212765957432</v>
+      </c>
+      <c r="H49" s="4">
+        <v>45077</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="K49" s="1">
+        <f>AVERAGE(K2:K48)</f>
+        <v>37.391369761252811</v>
+      </c>
+      <c r="L49" s="1">
+        <f>AVERAGE(L2:L48)</f>
+        <v>59.144052723728471</v>
+      </c>
+      <c r="M49" s="1">
+        <f>AVERAGE(M2:M48)</f>
+        <v>40.08297872340426</v>
+      </c>
+      <c r="N49" s="1">
+        <f>AVERAGE(N2:N48)</f>
+        <v>35.961702127659585</v>
       </c>
     </row>
   </sheetData>
